--- a/data/processed/2021-2023-ODP-AOA-headcount.xlsx
+++ b/data/processed/2021-2023-ODP-AOA-headcount.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\misc-projects\decision-services-index\data\processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\2-research\3-active-projects\2023-desindex\structural-insights-into-uk-gov\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="22104" windowHeight="9780"/>
+    <workbookView xWindow="5616" yWindow="0" windowWidth="22104" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Grade_ODP" sheetId="1" r:id="rId1"/>
@@ -1437,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2426,11 +2426,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH201"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9832,6 +9832,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FADE49AA34772468ECB203A2ABF3A84" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4571549b37e72e442c32f8b050513ece">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43f61a81-08e4-450f-9189-2143ec144f36" xmlns:ns3="229aab0b-7173-4521-96dd-bb43636f532e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="17c247149d8a92652750e643a07b1075" ns2:_="" ns3:_="">
     <xsd:import namespace="43f61a81-08e4-450f-9189-2143ec144f36"/>
@@ -10042,36 +10057,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A99F2DBA-FDA0-4409-A173-CC032FC32CBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9165561A-511B-44BA-ADC6-F14F96328C3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f61a81-08e4-450f-9189-2143ec144f36"/>
-    <ds:schemaRef ds:uri="229aab0b-7173-4521-96dd-bb43636f532e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10094,9 +10083,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9165561A-511B-44BA-ADC6-F14F96328C3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A99F2DBA-FDA0-4409-A173-CC032FC32CBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f61a81-08e4-450f-9189-2143ec144f36"/>
+    <ds:schemaRef ds:uri="229aab0b-7173-4521-96dd-bb43636f532e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>